--- a/files/Data/excel/S士兵数据.xlsx
+++ b/files/Data/excel/S士兵数据.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="345" windowWidth="20235" windowHeight="7770"/>
+    <workbookView xWindow="480" yWindow="113" windowWidth="18233" windowHeight="8453"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <connection id="1" name="LSoldierData" type="4" refreshedVersion="0" background="1">
-    <webPr xml="1" sourceData="1" url="I:\文件\Data\xml\LSoldierData.xml" htmlTables="1" htmlFormat="all"/>
+    <webPr xml="1" sourceData="1" url="C:\work\L\files\Data\xml\LSoldierData.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
@@ -50,7 +50,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ken_i</t>
+    <t>view_range_i</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -66,6 +66,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>LSoldierData.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,19 +98,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>外观</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LSoldierData.xml</t>
   </si>
 </sst>
 </file>
@@ -186,7 +187,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="atk_f" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="atk_range_f" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="speed_i" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="ken_i" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="view_range_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="money_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="exp_i" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="icon_i" form="unqualified"/>
@@ -226,8 +227,8 @@
     <tableColumn id="6" uniqueName="speed_i" name="speed_i">
       <xmlColumnPr mapId="1" xpath="/root/data/speed_i" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="7" uniqueName="ken_i" name="ken_i">
-      <xmlColumnPr mapId="1" xpath="/root/data/ken_i" xmlDataType="integer"/>
+    <tableColumn id="7" uniqueName="view_range_i" name="view_range_i">
+      <xmlColumnPr mapId="1" xpath="/root/data/view_range_i" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="8" uniqueName="money_i" name="money_i">
       <xmlColumnPr mapId="1" xpath="/root/data/money_i" xmlDataType="integer"/>
@@ -533,60 +534,60 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>0</v>
       </c>
@@ -618,7 +619,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C4">
         <v>1</v>
       </c>
@@ -650,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C5">
         <v>2</v>
       </c>
@@ -697,7 +698,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -710,7 +711,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
